--- a/Code/Data/Auto/gauss2_speedXtime/gauss2_speedXtime.xlsx
+++ b/Code/Data/Auto/gauss2_speedXtime/gauss2_speedXtime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toon\PycharmProjects\Thesis\Code\Data\Auto\gauss2_speedXtime\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/toon_vandegenachte_student_kuleuven_be/Documents/2de master/Thesis/Thesis/Code/Data/Auto/gauss2_speedXtime/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378F9091-B6BC-4FA6-836C-E535807F0940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{378F9091-B6BC-4FA6-836C-E535807F0940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB7FB183-02C2-44FF-9E40-50F6CCC6D453}"/>
   <bookViews>
-    <workbookView xWindow="14655" yWindow="525" windowWidth="15045" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,9 +467,16 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -575,7 +582,7 @@
         <v>3.8013309679041298</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -628,7 +635,7 @@
         <v>3.8026832610226702</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -681,7 +688,7 @@
         <v>305.99308036622102</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -734,7 +741,7 @@
         <v>305.99393510660502</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -787,7 +794,7 @@
         <v>1208.6110032269901</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -840,7 +847,7 @@
         <v>1239.8934759782901</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -893,7 +900,7 @@
         <v>1335.07009891911</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
